--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vclon\Code\CIJS77\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BDD4E62-82CE-4D75-93F7-E35938C6704D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8962A737-00FF-4A7F-B61B-84E65E332343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -148,7 +148,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -515,17 +515,17 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="31.109375" customWidth="1"/>
     <col min="2" max="3" width="26.44140625" customWidth="1"/>
     <col min="4" max="4" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -539,7 +539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>29</v>
       </c>
@@ -547,7 +547,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -555,128 +555,128 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="15" thickBot="1">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="15" thickBot="1">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="15" thickBot="1">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="15" thickBot="1">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="15" thickBot="1">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" ht="15" thickBot="1">
       <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
         <v>28</v>
       </c>
